--- a/src/test/java/DB_Testing/mariaDBTesting/testdata/testdata.xlsx
+++ b/src/test/java/DB_Testing/mariaDBTesting/testdata/testdata.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emre Duman\IdeaProjects\FullStack_WebAutomation_TestingBootcamp\JDBC_Ornek\src\test\java\DB_Testing\mariaDBTesting\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emre Duman\IdeaProjects\FullStack_WebAutomation_TestingBootcamp\06_DatabaseTesting\src\test\java\DB_Testing\MariaDBTesting\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24D45E0-FC55-44DF-9D17-AC0300374A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F12BFF-1067-4553-9BCA-E7864AC6DE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11620" yWindow="0" windowWidth="14070" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB_nation" sheetId="1" r:id="rId1"/>
+    <sheet name="createTable" sheetId="2" r:id="rId2"/>
+    <sheet name="insertTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>Table_Names</t>
   </si>
@@ -100,13 +102,58 @@
   </si>
   <si>
     <t>continent_id</t>
+  </si>
+  <si>
+    <t>STUDENT_TABLE</t>
+  </si>
+  <si>
+    <t>ADDRESSINFO_TABLE</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>address_info</t>
+  </si>
+  <si>
+    <t>sehir VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>ilce VARCHAR(100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mahalle VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>sokak VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>student_id INT UNIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , , </t>
+  </si>
+  <si>
+    <t>FOREIGN KEY (student_id) REFERENCES student(id)</t>
+  </si>
+  <si>
+    <t>id INT PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>name VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>age INT</t>
+  </si>
+  <si>
+    <t>Table_Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +166,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -168,10 +221,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,18 +513,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19.453125" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="5" max="8" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,7 +550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -507,7 +566,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -533,7 +592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -545,7 +604,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -557,7 +616,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -569,7 +628,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -581,7 +640,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -593,7 +652,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -605,7 +664,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -625,4 +684,299 @@
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Internal to Wipro</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB066261-8807-4C3D-B4A5-18D43E35D498}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" customWidth="1"/>
+    <col min="8" max="8" width="27.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="29">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CABEB35-453C-4964-AD89-09EB7F482169}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>